--- a/team_specific_matrix/Fordham_B.xlsx
+++ b/team_specific_matrix/Fordham_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2087912087912088</v>
+        <v>0.2085714285714286</v>
       </c>
       <c r="C2">
-        <v>0.5347985347985348</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007326007326007326</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1501831501831502</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0989010989010989</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03846153846153846</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03205128205128205</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7435897435897436</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1858974358974359</v>
+        <v>0.1911764705882353</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03571428571428571</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.75</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2142857142857143</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07647058823529412</v>
+        <v>0.06787330316742081</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005882352941176471</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="E6">
-        <v>0.005882352941176471</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="F6">
-        <v>0.05294117647058823</v>
+        <v>0.05429864253393665</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2176470588235294</v>
+        <v>0.2171945701357466</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01764705882352941</v>
+        <v>0.02714932126696833</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1882352941176471</v>
+        <v>0.1900452488687783</v>
       </c>
       <c r="R6">
-        <v>0.07647058823529412</v>
+        <v>0.06334841628959276</v>
       </c>
       <c r="S6">
-        <v>0.3588235294117647</v>
+        <v>0.3710407239819005</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.072992700729927</v>
+        <v>0.0903954802259887</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0218978102189781</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="E7">
-        <v>0.0072992700729927</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="F7">
-        <v>0.072992700729927</v>
+        <v>0.0903954802259887</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1386861313868613</v>
+        <v>0.1299435028248588</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1678832116788321</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="R7">
-        <v>0.08029197080291971</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="S7">
-        <v>0.4379562043795621</v>
+        <v>0.4406779661016949</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1230283911671924</v>
+        <v>0.1174934725848564</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0220820189274448</v>
+        <v>0.01827676240208877</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07570977917981073</v>
+        <v>0.08093994778067885</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08517350157728706</v>
+        <v>0.08877284595300261</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.003154574132492113</v>
+        <v>0.005221932114882507</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2018927444794953</v>
+        <v>0.1984334203655352</v>
       </c>
       <c r="R8">
-        <v>0.0473186119873817</v>
+        <v>0.04960835509138381</v>
       </c>
       <c r="S8">
-        <v>0.4416403785488959</v>
+        <v>0.4412532637075718</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1042944785276074</v>
+        <v>0.11</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03067484662576687</v>
+        <v>0.025</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04294478527607362</v>
+        <v>0.05</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08588957055214724</v>
+        <v>0.105</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01226993865030675</v>
+        <v>0.015</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2024539877300613</v>
+        <v>0.18</v>
       </c>
       <c r="R9">
-        <v>0.08588957055214724</v>
+        <v>0.09</v>
       </c>
       <c r="S9">
-        <v>0.4355828220858896</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1416309012875537</v>
+        <v>0.1467345207803223</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01609442060085837</v>
+        <v>0.01696352841391009</v>
       </c>
       <c r="E10">
-        <v>0.001072961373390558</v>
+        <v>0.001696352841391009</v>
       </c>
       <c r="F10">
-        <v>0.07296137339055794</v>
+        <v>0.0729431721798134</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09871244635193133</v>
+        <v>0.1051738761662426</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01716738197424893</v>
+        <v>0.01611535199321459</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2221030042918455</v>
+        <v>0.2145886344359627</v>
       </c>
       <c r="R10">
-        <v>0.07296137339055794</v>
+        <v>0.07124681933842239</v>
       </c>
       <c r="S10">
-        <v>0.3572961373390558</v>
+        <v>0.354537743850721</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1300813008130081</v>
+        <v>0.1358024691358025</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1016260162601626</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K11">
-        <v>0.2073170731707317</v>
+        <v>0.212962962962963</v>
       </c>
       <c r="L11">
-        <v>0.5284552845528455</v>
+        <v>0.5123456790123457</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03252032520325204</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7089552238805971</v>
+        <v>0.6882352941176471</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2164179104477612</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="K12">
-        <v>0.01492537313432836</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="L12">
-        <v>0.01492537313432836</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04477611940298507</v>
+        <v>0.05294117647058823</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="G13">
-        <v>0.5909090909090909</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4090909090909091</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0457516339869281</v>
+        <v>0.04591836734693878</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2026143790849673</v>
+        <v>0.1989795918367347</v>
       </c>
       <c r="I15">
-        <v>0.08496732026143791</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="J15">
-        <v>0.3333333333333333</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="K15">
-        <v>0.05882352941176471</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="N15">
-        <v>0.006535947712418301</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="O15">
-        <v>0.05882352941176471</v>
+        <v>0.05612244897959184</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2091503267973856</v>
+        <v>0.2244897959183673</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0115606936416185</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1445086705202312</v>
+        <v>0.1643835616438356</v>
       </c>
       <c r="I16">
-        <v>0.08670520231213873</v>
+        <v>0.0776255707762557</v>
       </c>
       <c r="J16">
-        <v>0.4219653179190752</v>
+        <v>0.4063926940639269</v>
       </c>
       <c r="K16">
-        <v>0.1271676300578035</v>
+        <v>0.1415525114155251</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01734104046242774</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05780346820809248</v>
+        <v>0.045662100456621</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1329479768786127</v>
+        <v>0.1415525114155251</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01400560224089636</v>
+        <v>0.01392111368909513</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1568627450980392</v>
+        <v>0.1508120649651972</v>
       </c>
       <c r="I17">
-        <v>0.1064425770308123</v>
+        <v>0.1090487238979118</v>
       </c>
       <c r="J17">
-        <v>0.4257703081232493</v>
+        <v>0.4245939675174014</v>
       </c>
       <c r="K17">
-        <v>0.1036414565826331</v>
+        <v>0.0951276102088167</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.008403361344537815</v>
+        <v>0.01392111368909513</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002320185614849188</v>
       </c>
       <c r="O17">
-        <v>0.05602240896358544</v>
+        <v>0.0580046403712297</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1288515406162465</v>
+        <v>0.1322505800464037</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01652892561983471</v>
+        <v>0.0272108843537415</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2396694214876033</v>
+        <v>0.2108843537414966</v>
       </c>
       <c r="I18">
-        <v>0.140495867768595</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="J18">
-        <v>0.3388429752066116</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="K18">
-        <v>0.09090909090909091</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04958677685950413</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1239669421487603</v>
+        <v>0.108843537414966</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0153217568947906</v>
+        <v>0.01465798045602606</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1828396322778345</v>
+        <v>0.1767100977198697</v>
       </c>
       <c r="I19">
-        <v>0.08273748723186926</v>
+        <v>0.08306188925081433</v>
       </c>
       <c r="J19">
-        <v>0.3810010214504597</v>
+        <v>0.3786644951140065</v>
       </c>
       <c r="K19">
-        <v>0.1133810010214505</v>
+        <v>0.1229641693811075</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01838610827374872</v>
+        <v>0.01791530944625407</v>
       </c>
       <c r="N19">
-        <v>0.001021450459652707</v>
+        <v>0.0008143322475570033</v>
       </c>
       <c r="O19">
-        <v>0.06741573033707865</v>
+        <v>0.07084690553745929</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1378958120531154</v>
+        <v>0.1343648208469055</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Fordham_B.xlsx
+++ b/team_specific_matrix/Fordham_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2085714285714286</v>
+        <v>0.2081081081081081</v>
       </c>
       <c r="C2">
-        <v>0.5428571428571428</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.005714285714285714</v>
+        <v>0.008108108108108109</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1428571428571428</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1</v>
+        <v>0.0972972972972973</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04411764705882353</v>
+        <v>0.04186046511627907</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0392156862745098</v>
+        <v>0.04186046511627907</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7254901960784313</v>
+        <v>0.7255813953488373</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1911764705882353</v>
+        <v>0.1906976744186047</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0303030303030303</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7878787878787878</v>
+        <v>0.8</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1818181818181818</v>
+        <v>0.1714285714285714</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06787330316742081</v>
+        <v>0.0653061224489796</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004524886877828055</v>
+        <v>0.004081632653061225</v>
       </c>
       <c r="E6">
-        <v>0.004524886877828055</v>
+        <v>0.004081632653061225</v>
       </c>
       <c r="F6">
-        <v>0.05429864253393665</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2171945701357466</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02714932126696833</v>
+        <v>0.0326530612244898</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1900452488687783</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="R6">
-        <v>0.06334841628959276</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="S6">
-        <v>0.3710407239819005</v>
+        <v>0.3714285714285714</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0903954802259887</v>
+        <v>0.0918918918918919</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01694915254237288</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="E7">
-        <v>0.005649717514124294</v>
+        <v>0.005405405405405406</v>
       </c>
       <c r="F7">
-        <v>0.0903954802259887</v>
+        <v>0.08648648648648649</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1299435028248588</v>
+        <v>0.1243243243243243</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005649717514124294</v>
+        <v>0.005405405405405406</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1525423728813559</v>
+        <v>0.1513513513513514</v>
       </c>
       <c r="R7">
-        <v>0.06779661016949153</v>
+        <v>0.06486486486486487</v>
       </c>
       <c r="S7">
-        <v>0.4406779661016949</v>
+        <v>0.4540540540540541</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1174934725848564</v>
+        <v>0.1209876543209877</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01827676240208877</v>
+        <v>0.01975308641975309</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08093994778067885</v>
+        <v>0.07901234567901234</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08877284595300261</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.005221932114882507</v>
+        <v>0.004938271604938272</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1984334203655352</v>
+        <v>0.1901234567901235</v>
       </c>
       <c r="R8">
-        <v>0.04960835509138381</v>
+        <v>0.05432098765432099</v>
       </c>
       <c r="S8">
-        <v>0.4412532637075718</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.11</v>
+        <v>0.1009174311926606</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.025</v>
+        <v>0.02293577981651376</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05</v>
+        <v>0.05504587155963303</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.105</v>
+        <v>0.1055045871559633</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.015</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.18</v>
+        <v>0.1880733944954129</v>
       </c>
       <c r="R9">
-        <v>0.09</v>
+        <v>0.09174311926605505</v>
       </c>
       <c r="S9">
-        <v>0.425</v>
+        <v>0.4220183486238532</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1467345207803223</v>
+        <v>0.14296875</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01696352841391009</v>
+        <v>0.01640625</v>
       </c>
       <c r="E10">
-        <v>0.001696352841391009</v>
+        <v>0.0015625</v>
       </c>
       <c r="F10">
-        <v>0.0729431721798134</v>
+        <v>0.075</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1051738761662426</v>
+        <v>0.11015625</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01611535199321459</v>
+        <v>0.01640625</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2145886344359627</v>
+        <v>0.21953125</v>
       </c>
       <c r="R10">
-        <v>0.07124681933842239</v>
+        <v>0.07109375</v>
       </c>
       <c r="S10">
-        <v>0.354537743850721</v>
+        <v>0.346875</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1358024691358025</v>
+        <v>0.1319648093841642</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1111111111111111</v>
+        <v>0.1085043988269795</v>
       </c>
       <c r="K11">
-        <v>0.212962962962963</v>
+        <v>0.2082111436950147</v>
       </c>
       <c r="L11">
-        <v>0.5123456790123457</v>
+        <v>0.5219941348973607</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02777777777777778</v>
+        <v>0.02932551319648094</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6882352941176471</v>
+        <v>0.6775956284153005</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2235294117647059</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="K12">
-        <v>0.01176470588235294</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="L12">
-        <v>0.02352941176470588</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05294117647058823</v>
+        <v>0.0546448087431694</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.03225806451612903</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="G13">
-        <v>0.6129032258064516</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3548387096774194</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04591836734693878</v>
+        <v>0.04739336492890995</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1989795918367347</v>
+        <v>0.1848341232227488</v>
       </c>
       <c r="I15">
-        <v>0.08163265306122448</v>
+        <v>0.07582938388625593</v>
       </c>
       <c r="J15">
-        <v>0.3214285714285715</v>
+        <v>0.3270142180094787</v>
       </c>
       <c r="K15">
-        <v>0.06122448979591837</v>
+        <v>0.06161137440758294</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00510204081632653</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="N15">
-        <v>0.00510204081632653</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="O15">
-        <v>0.05612244897959184</v>
+        <v>0.05687203791469194</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2244897959183673</v>
+        <v>0.2369668246445498</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0091324200913242</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1643835616438356</v>
+        <v>0.1630901287553648</v>
       </c>
       <c r="I16">
-        <v>0.0776255707762557</v>
+        <v>0.07725321888412018</v>
       </c>
       <c r="J16">
-        <v>0.4063926940639269</v>
+        <v>0.4120171673819742</v>
       </c>
       <c r="K16">
-        <v>0.1415525114155251</v>
+        <v>0.1416309012875537</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0136986301369863</v>
+        <v>0.0128755364806867</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.045662100456621</v>
+        <v>0.04721030042918455</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1415525114155251</v>
+        <v>0.1373390557939914</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01392111368909513</v>
+        <v>0.01705756929637527</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1508120649651972</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I17">
-        <v>0.1090487238979118</v>
+        <v>0.1087420042643923</v>
       </c>
       <c r="J17">
-        <v>0.4245939675174014</v>
+        <v>0.4221748400852878</v>
       </c>
       <c r="K17">
-        <v>0.0951276102088167</v>
+        <v>0.09808102345415778</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01392111368909513</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="N17">
-        <v>0.002320185614849188</v>
+        <v>0.002132196162046908</v>
       </c>
       <c r="O17">
-        <v>0.0580046403712297</v>
+        <v>0.05543710021321962</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1322505800464037</v>
+        <v>0.138592750533049</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0272108843537415</v>
+        <v>0.02515723270440252</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2108843537414966</v>
+        <v>0.1949685534591195</v>
       </c>
       <c r="I18">
-        <v>0.1224489795918367</v>
+        <v>0.119496855345912</v>
       </c>
       <c r="J18">
-        <v>0.3809523809523809</v>
+        <v>0.389937106918239</v>
       </c>
       <c r="K18">
-        <v>0.09523809523809523</v>
+        <v>0.0880503144654088</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006802721088435374</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04761904761904762</v>
+        <v>0.06918238993710692</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.108843537414966</v>
+        <v>0.1069182389937107</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01465798045602606</v>
+        <v>0.01514004542013626</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1767100977198697</v>
+        <v>0.1786525359576079</v>
       </c>
       <c r="I19">
-        <v>0.08306188925081433</v>
+        <v>0.08629825889477669</v>
       </c>
       <c r="J19">
-        <v>0.3786644951140065</v>
+        <v>0.3769871309613929</v>
       </c>
       <c r="K19">
-        <v>0.1229641693811075</v>
+        <v>0.1196063588190765</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01791530944625407</v>
+        <v>0.0174110522331567</v>
       </c>
       <c r="N19">
-        <v>0.0008143322475570033</v>
+        <v>0.000757002271006813</v>
       </c>
       <c r="O19">
-        <v>0.07084690553745929</v>
+        <v>0.06888720666161999</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1343648208469055</v>
+        <v>0.1362604087812263</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Fordham_B.xlsx
+++ b/team_specific_matrix/Fordham_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2081081081081081</v>
+        <v>0.2124352331606218</v>
       </c>
       <c r="C2">
-        <v>0.5405405405405406</v>
+        <v>0.5336787564766839</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008108108108108109</v>
+        <v>0.007772020725388601</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.145945945945946</v>
+        <v>0.1450777202072539</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0972972972972973</v>
+        <v>0.1010362694300518</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04186046511627907</v>
+        <v>0.04072398190045249</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04186046511627907</v>
+        <v>0.04524886877828054</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7255813953488373</v>
+        <v>0.7285067873303167</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1906976744186047</v>
+        <v>0.1855203619909502</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02857142857142857</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1714285714285714</v>
+        <v>0.1621621621621622</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0653061224489796</v>
+        <v>0.06299212598425197</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004081632653061225</v>
+        <v>0.003937007874015748</v>
       </c>
       <c r="E6">
-        <v>0.004081632653061225</v>
+        <v>0.003937007874015748</v>
       </c>
       <c r="F6">
-        <v>0.05714285714285714</v>
+        <v>0.05511811023622047</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2244897959183673</v>
+        <v>0.2283464566929134</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0326530612244898</v>
+        <v>0.03543307086614173</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1836734693877551</v>
+        <v>0.1889763779527559</v>
       </c>
       <c r="R6">
-        <v>0.05714285714285714</v>
+        <v>0.05905511811023622</v>
       </c>
       <c r="S6">
-        <v>0.3714285714285714</v>
+        <v>0.3622047244094488</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0918918918918919</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01621621621621622</v>
+        <v>0.01570680628272251</v>
       </c>
       <c r="E7">
-        <v>0.005405405405405406</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="F7">
-        <v>0.08648648648648649</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1243243243243243</v>
+        <v>0.1308900523560209</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005405405405405406</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1513513513513514</v>
+        <v>0.1518324607329843</v>
       </c>
       <c r="R7">
-        <v>0.06486486486486487</v>
+        <v>0.06282722513089005</v>
       </c>
       <c r="S7">
-        <v>0.4540540540540541</v>
+        <v>0.450261780104712</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1209876543209877</v>
+        <v>0.1241050119331742</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01975308641975309</v>
+        <v>0.01909307875894988</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07901234567901234</v>
+        <v>0.081145584725537</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08641975308641975</v>
+        <v>0.08353221957040573</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.004938271604938272</v>
+        <v>0.007159904534606206</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1901234567901235</v>
+        <v>0.1909307875894988</v>
       </c>
       <c r="R8">
-        <v>0.05432098765432099</v>
+        <v>0.05250596658711217</v>
       </c>
       <c r="S8">
-        <v>0.4444444444444444</v>
+        <v>0.441527446300716</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1009174311926606</v>
+        <v>0.1022222222222222</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02293577981651376</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05504587155963303</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1055045871559633</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01376146788990826</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1880733944954129</v>
+        <v>0.1822222222222222</v>
       </c>
       <c r="R9">
-        <v>0.09174311926605505</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="S9">
-        <v>0.4220183486238532</v>
+        <v>0.4266666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.14296875</v>
+        <v>0.1438304314912945</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01640625</v>
+        <v>0.0174110522331567</v>
       </c>
       <c r="E10">
-        <v>0.0015625</v>
+        <v>0.001514004542013626</v>
       </c>
       <c r="F10">
-        <v>0.075</v>
+        <v>0.07494322482967448</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.11015625</v>
+        <v>0.1097653292959879</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01640625</v>
+        <v>0.01665404996214989</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.21953125</v>
+        <v>0.2172596517789553</v>
       </c>
       <c r="R10">
-        <v>0.07109375</v>
+        <v>0.07267221801665405</v>
       </c>
       <c r="S10">
-        <v>0.346875</v>
+        <v>0.3459500378501135</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1319648093841642</v>
+        <v>0.1359773371104816</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1085043988269795</v>
+        <v>0.1076487252124646</v>
       </c>
       <c r="K11">
-        <v>0.2082111436950147</v>
+        <v>0.2096317280453258</v>
       </c>
       <c r="L11">
-        <v>0.5219941348973607</v>
+        <v>0.5184135977337111</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02932551319648094</v>
+        <v>0.028328611898017</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6775956284153005</v>
+        <v>0.675531914893617</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2295081967213115</v>
+        <v>0.2287234042553191</v>
       </c>
       <c r="K12">
-        <v>0.01092896174863388</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="L12">
-        <v>0.0273224043715847</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0546448087431694</v>
+        <v>0.05851063829787234</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.0303030303030303</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G13">
-        <v>0.6060606060606061</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3636363636363636</v>
+        <v>0.4</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04739336492890995</v>
+        <v>0.04910714285714286</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1848341232227488</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="I15">
-        <v>0.07582938388625593</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J15">
-        <v>0.3270142180094787</v>
+        <v>0.3303571428571428</v>
       </c>
       <c r="K15">
-        <v>0.06161137440758294</v>
+        <v>0.06696428571428571</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004739336492890996</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="N15">
-        <v>0.004739336492890996</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="O15">
-        <v>0.05687203791469194</v>
+        <v>0.0625</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2369668246445498</v>
+        <v>0.2321428571428572</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.008583690987124463</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1630901287553648</v>
+        <v>0.1652892561983471</v>
       </c>
       <c r="I16">
-        <v>0.07725321888412018</v>
+        <v>0.07851239669421488</v>
       </c>
       <c r="J16">
-        <v>0.4120171673819742</v>
+        <v>0.4049586776859504</v>
       </c>
       <c r="K16">
-        <v>0.1416309012875537</v>
+        <v>0.1446280991735537</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0128755364806867</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04721030042918455</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1373390557939914</v>
+        <v>0.1363636363636364</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01705756929637527</v>
+        <v>0.01659751037344398</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1428571428571428</v>
+        <v>0.1390041493775934</v>
       </c>
       <c r="I17">
-        <v>0.1087420042643923</v>
+        <v>0.1099585062240664</v>
       </c>
       <c r="J17">
-        <v>0.4221748400852878</v>
+        <v>0.4211618257261411</v>
       </c>
       <c r="K17">
-        <v>0.09808102345415778</v>
+        <v>0.0975103734439834</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01492537313432836</v>
+        <v>0.01452282157676349</v>
       </c>
       <c r="N17">
-        <v>0.002132196162046908</v>
+        <v>0.002074688796680498</v>
       </c>
       <c r="O17">
-        <v>0.05543710021321962</v>
+        <v>0.05601659751037345</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.138592750533049</v>
+        <v>0.1431535269709543</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02515723270440252</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1949685534591195</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="I18">
-        <v>0.119496855345912</v>
+        <v>0.1204819277108434</v>
       </c>
       <c r="J18">
-        <v>0.389937106918239</v>
+        <v>0.3734939759036144</v>
       </c>
       <c r="K18">
-        <v>0.0880503144654088</v>
+        <v>0.09036144578313253</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006289308176100629</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06918238993710692</v>
+        <v>0.0783132530120482</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1069182389937107</v>
+        <v>0.1144578313253012</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01514004542013626</v>
+        <v>0.01536210680321873</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1786525359576079</v>
+        <v>0.1799561082662765</v>
       </c>
       <c r="I19">
-        <v>0.08629825889477669</v>
+        <v>0.08558888076079005</v>
       </c>
       <c r="J19">
-        <v>0.3769871309613929</v>
+        <v>0.3752743233357718</v>
       </c>
       <c r="K19">
-        <v>0.1196063588190765</v>
+        <v>0.1177761521580102</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0174110522331567</v>
+        <v>0.01755669348939283</v>
       </c>
       <c r="N19">
-        <v>0.000757002271006813</v>
+        <v>0.000731528895391368</v>
       </c>
       <c r="O19">
-        <v>0.06888720666161999</v>
+        <v>0.06949524506217995</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1362604087812263</v>
+        <v>0.1382589612289686</v>
       </c>
     </row>
   </sheetData>
